--- a/1_Overview/Table S3 Deep sequencing statistics.xlsx
+++ b/1_Overview/Table S3 Deep sequencing statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattsmith/Dropbox (University of Michigan)/from_box/My_Stuff/Python_Codes/mds_pkgs/TessierLab Github/PSERM_Paper/PSERM_paper/1_Overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6FDCF-5784-7D46-86FC-2F9B6437D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7270A3-0E64-EB40-9615-8C90772DE246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{55BAC4AC-477D-5F42-B2CA-4F25D58A356A}"/>
   </bookViews>
@@ -149,21 +149,12 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Number of reads replicate 1</t>
-  </si>
-  <si>
     <t>Number of unique sequences replicate 1</t>
   </si>
   <si>
-    <t>Number of reads replicate 2</t>
-  </si>
-  <si>
     <t>Number of unique sequences replicate 2</t>
   </si>
   <si>
-    <t>Library size</t>
-  </si>
-  <si>
     <t>Antibody format</t>
   </si>
   <si>
@@ -171,6 +162,15 @@
   </si>
   <si>
     <t>single-chain Fv</t>
+  </si>
+  <si>
+    <t>NiR1</t>
+  </si>
+  <si>
+    <t>NiR2</t>
+  </si>
+  <si>
+    <t>Theoretical library size</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,11 +202,6 @@
       <name val="MyriadPro-Regular"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="MyriadPro-Regular"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="MyriadPro-Regular"/>
     </font>
@@ -359,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,82 +366,85 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,16 +765,16 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -784,29 +782,29 @@
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -814,184 +812,172 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="19">
+        <v>1679616</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5">
-        <v>1679616</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>1124801</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>534622</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>422021</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="8">
         <v>275256</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13">
+      <c r="F3" s="9">
         <v>852614</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <v>68642</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>362501</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="11">
         <v>49131</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>479012</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="10">
         <v>45135</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>407575</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>56602</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>784516</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>375435</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>377648</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <v>218102</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>1003960</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>339053</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>329373</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <v>193742</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>1223220</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>527141</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>434121</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="11">
         <v>184603</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="16">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="20">
+      <c r="F8" s="15">
         <v>332532</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="16">
         <v>165968</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="17">
         <v>349308</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="18">
         <v>193221</v>
       </c>
       <c r="J8" s="1"/>
@@ -1000,184 +986,172 @@
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="22">
+        <v>1555200</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="24">
-        <v>1555200</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <v>1517232</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>842264</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>1289726</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="11">
         <v>806200</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>2018188</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>192535</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>1744902</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="11">
         <v>203482</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>2154312</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>1002697</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>1386191</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="11">
         <v>733310</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>1980461</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="10">
         <v>813486</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>1473517</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="11">
         <v>686594</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <v>2093513</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>447737</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <v>1640062</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="11">
         <v>361305</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>608639</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <v>195398</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>488645</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="11">
         <v>139865</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="16">
-        <v>2</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="20">
+      <c r="F15" s="15">
         <v>577740</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="16">
         <v>307720</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="17">
         <v>499735</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="18">
         <v>271566</v>
       </c>
       <c r="J15" s="1"/>
@@ -1186,132 +1160,124 @@
       <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="22">
+        <v>10240000000000</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="24">
-        <v>10240000000000</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9">
         <v>808243</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="10">
         <v>17643</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>1066991</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="11">
         <v>16760</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <v>883327</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="10">
         <v>5920</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <v>1237003</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="11">
         <v>6885</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>965836</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="10">
         <v>1697</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="7">
         <v>1014754</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="11">
         <v>2084</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13">
+      <c r="F19" s="9">
         <v>936163</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="10">
         <v>1497</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <v>1124647</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="11">
         <v>1762</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <v>968311</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="10">
         <v>1590</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="7">
         <v>992698</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <v>1672</v>
       </c>
       <c r="J20" s="1"/>
@@ -1329,12 +1295,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E2:E8"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C16:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
